--- a/biology/Médecine/Granulome_facial_de_Lever/Granulome_facial_de_Lever.xlsx
+++ b/biology/Médecine/Granulome_facial_de_Lever/Granulome_facial_de_Lever.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le granulome facial de Lever est une dermatose bénigne et rare.
 </t>
@@ -511,7 +523,9 @@
           <t>Diagnostic différentiel clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>sarcoïdose
 lupus érythémateux discoïde
@@ -549,7 +563,9 @@
           <t>Anatomie pathologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'examen microscopique montre un infiltrat inflammatoire dense du derme superficiel et moyen, autour de vaisseaux en nombre accru et dilatés sous un épiderme normal. Cet infiltrat est constitué principalement de polynucléaires éosinophiles et neutrophiles associés à des cellules lympho-histiocytaires. Il n'atteint pas l'épiderme (Grenz zone de faible épaisseur) et respecte les annexes. Une légère vasculite leucocytoclasique peut y être associé.
 </t>
